--- a/contents/battle_4/battle_4_node_map.xlsx
+++ b/contents/battle_4/battle_4_node_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F54135B-7B1A-4A8B-8D0E-DEA9D78EFA8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC0401B-8828-4E4B-A2C4-AA0572F2F088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,7 +357,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +414,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>112</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>111</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>110</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>95</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>93</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>91</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>87</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>85</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>83</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>81</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>75</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>68</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>61</v>
